--- a/GoodInfo_StockList_20211130.xlsx
+++ b/GoodInfo_StockList_20211130.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaeon365-my.sharepoint.com/personal/raywu_aaeon_com_tw/Documents/_OLD/Documents/Python/GoodInfo_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\GoodInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8A07F1A9-BC5A-4125-B52F-757F9800C51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14784" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14784" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>名稱</t>
   </si>
@@ -85,9 +84,6 @@
     <t>京城銀</t>
   </si>
   <si>
-    <t>統一超</t>
-  </si>
-  <si>
     <t>嘉晶</t>
   </si>
   <si>
@@ -125,9 +121,6 @@
   </si>
   <si>
     <t>健策</t>
-  </si>
-  <si>
-    <t>聯光通</t>
   </si>
   <si>
     <t>泰鼎-KY</t>
@@ -204,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,18 +562,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -589,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -612,22 +605,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1709</v>
+        <v>1721</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>25.45</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -658,36 +651,48 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1721</v>
+        <v>2374</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>25.45</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>8.91</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>293.5</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1722</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>73.2</v>
-      </c>
-      <c r="E5">
-        <v>2.8</v>
+      <c r="F5">
+        <v>1.72</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -695,42 +700,51 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>2355</v>
+        <v>2497</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>40.450000000000003</v>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4.53</v>
+      </c>
+      <c r="H6">
+        <v>2.95</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>2374</v>
+        <v>3016</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>25.45</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>8.91</v>
+        <v>5.4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -738,39 +752,51 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>2376</v>
+        <v>3037</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>148</v>
+        <v>229.5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2.33</v>
+      </c>
+      <c r="H8">
+        <v>6.22</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>2383</v>
+        <v>3532</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>293.5</v>
+        <v>266</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
-        <v>1.72</v>
+        <v>6.71</v>
+      </c>
+      <c r="H9">
+        <v>5.97</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
@@ -778,19 +804,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>2455</v>
+        <v>3653</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>162.5</v>
+        <v>439</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>6.07</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
@@ -798,45 +827,45 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>2497</v>
+        <v>5383</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>66.400000000000006</v>
+        <v>42.25</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>4.53</v>
-      </c>
-      <c r="H11">
-        <v>2.95</v>
-      </c>
       <c r="K11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>2809</v>
+        <v>6138</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>44.6</v>
+        <v>278.5</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4.46</v>
+      </c>
+      <c r="H12">
+        <v>3.32</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
@@ -844,62 +873,71 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>2912</v>
+        <v>6182</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>294</v>
+        <v>88.4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3.65</v>
+      </c>
+      <c r="H13">
+        <v>12.26</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>3016</v>
+        <v>6190</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>154</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>5.4</v>
-      </c>
-      <c r="H14">
-        <v>4.68</v>
-      </c>
       <c r="K14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>3017</v>
+        <v>8069</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>92.3</v>
+        <v>131</v>
       </c>
       <c r="E15">
-        <v>2.8</v>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.72</v>
+      </c>
+      <c r="H15">
+        <v>6.7</v>
       </c>
       <c r="K15" t="s">
         <v>9</v>
@@ -907,25 +945,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>3037</v>
+        <v>6271</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>229.5</v>
+        <v>323.5</v>
       </c>
       <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>2.33</v>
-      </c>
-      <c r="H16">
-        <v>6.22</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="s">
         <v>9</v>
@@ -933,19 +965,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>3189</v>
+        <v>8046</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>257.5</v>
+        <v>631</v>
       </c>
       <c r="E17">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -953,16 +985,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2376</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>3221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
       <c r="D18">
-        <v>45.1</v>
+        <v>148</v>
+      </c>
+      <c r="E18">
+        <v>2.8</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -970,16 +1005,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>3305</v>
+        <v>3221</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>92.4</v>
+        <v>45.1</v>
+      </c>
+      <c r="E19">
+        <v>2.8</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -987,16 +1025,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>34.35</v>
+        <v>92.4</v>
+      </c>
+      <c r="E20">
+        <v>2.8</v>
       </c>
       <c r="K20" t="s">
         <v>12</v>
@@ -1004,36 +1045,39 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>3312</v>
+        <v>3515</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>28.6</v>
+        <v>260.5</v>
       </c>
       <c r="E21">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>3515</v>
+        <v>3588</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>260.5</v>
+        <v>174.5</v>
+      </c>
+      <c r="E22">
+        <v>2.8</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -1041,42 +1085,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>3532</v>
+        <v>6196</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>6.71</v>
-      </c>
-      <c r="H23">
-        <v>5.97</v>
+        <v>2.8</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>3588</v>
+        <v>6411</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>174.5</v>
+        <v>302</v>
+      </c>
+      <c r="E24">
+        <v>2.8</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -1084,16 +1125,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>3624</v>
+        <v>8289</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>56.9</v>
+        <v>41.95</v>
+      </c>
+      <c r="E25">
+        <v>2.8</v>
       </c>
       <c r="K25" t="s">
         <v>12</v>
@@ -1101,22 +1145,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>3653</v>
+        <v>1722</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>439</v>
+        <v>73.2</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>6.07</v>
+        <v>2.8</v>
       </c>
       <c r="K26" t="s">
         <v>9</v>
@@ -1124,33 +1165,36 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>4903</v>
+        <v>3017</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>14.6</v>
+        <v>92.3</v>
+      </c>
+      <c r="E27">
+        <v>2.8</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>4927</v>
+        <v>3189</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>114</v>
+        <v>257.5</v>
       </c>
       <c r="E28">
         <v>2.8</v>
@@ -1161,53 +1205,59 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>4966</v>
+        <v>4927</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>2240</v>
+        <v>114</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>5383</v>
+        <v>5410</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>42.25</v>
+        <v>27.5</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>5410</v>
+        <v>8183</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D31">
-        <v>27.5</v>
+        <v>69.3</v>
+      </c>
+      <c r="E31">
+        <v>2.5</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
@@ -1215,16 +1265,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>5483</v>
+        <v>1709</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>225</v>
+        <v>25.45</v>
       </c>
       <c r="E32">
         <v>2.5</v>
@@ -1235,25 +1285,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>6138</v>
+        <v>2455</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>278.5</v>
+        <v>162.5</v>
       </c>
       <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>4.46</v>
-      </c>
-      <c r="H33">
-        <v>3.32</v>
+        <v>2.5</v>
       </c>
       <c r="K33" t="s">
         <v>9</v>
@@ -1261,45 +1305,39 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>6182</v>
+        <v>3312</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>88.4</v>
+        <v>28.6</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>3.65</v>
-      </c>
-      <c r="H34">
-        <v>12.26</v>
-      </c>
       <c r="K34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>6190</v>
+        <v>5483</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>39.700000000000003</v>
+        <v>225</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="s">
         <v>9</v>
@@ -1307,50 +1345,59 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>6191</v>
+        <v>6603</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>20.7</v>
+      </c>
+      <c r="E36">
+        <v>2.5</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>6196</v>
+        <v>8121</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>165</v>
+        <v>58.7</v>
+      </c>
+      <c r="E37">
+        <v>2.5</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>6205</v>
+        <v>6243</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>55.5</v>
+        <v>60.9</v>
+      </c>
+      <c r="E38">
+        <v>2.4</v>
       </c>
       <c r="K38" t="s">
         <v>9</v>
@@ -1358,56 +1405,59 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>6243</v>
+        <v>2355</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>60.9</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="E39">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>6271</v>
+        <v>3624</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>323.5</v>
+        <v>56.9</v>
       </c>
       <c r="E40">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>6411</v>
+        <v>6191</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>302</v>
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="K41" t="s">
         <v>12</v>
@@ -1415,39 +1465,39 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>6603</v>
+        <v>8112</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>20.7</v>
+        <v>49.3</v>
       </c>
       <c r="E42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>8046</v>
+        <v>2809</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>631</v>
+        <v>44.6</v>
       </c>
       <c r="E43">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
         <v>9</v>
@@ -1455,42 +1505,33 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>8069</v>
+        <v>3306</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>131</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>0.72</v>
-      </c>
-      <c r="H44">
-        <v>6.7</v>
+        <v>34.35</v>
       </c>
       <c r="K44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>8112</v>
+        <v>4966</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>49.3</v>
+        <v>2240</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -1498,59 +1539,25 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>6205</v>
+      </c>
+      <c r="C46" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>8121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
       <c r="D46">
-        <v>58.7</v>
-      </c>
-      <c r="E46">
-        <v>2.5</v>
+        <v>55.5</v>
       </c>
       <c r="K46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>8183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>69.3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>8289</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48">
-        <v>41.95</v>
-      </c>
-      <c r="K48" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:K46">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
